--- a/biology/Histoire de la zoologie et de la botanique/Carl_Friedrich_Roewer/Carl_Friedrich_Roewer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Friedrich_Roewer/Carl_Friedrich_Roewer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Friedrich Roewer est un arachnologiste allemand, né le 12 octobre 1881 à Neustrelitz et mort le 17 juin 1963.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie l’histoire naturelle à l’université d'Iéna et devient, en 1906, l’assistant Ernst Haeckel (1834-1919). Il part travailler auprès de Karl Matthias Friedrich Magnus Kraepelin (1848-1915) où il commence à s’intéresser aux arachnides. Il s’installe à Brème en 1910. Il y dirige le musée d’outre-mer (Übersee-Museum) à partir de 1930[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie l’histoire naturelle à l’université d'Iéna et devient, en 1906, l’assistant Ernst Haeckel (1834-1919). Il part travailler auprès de Karl Matthias Friedrich Magnus Kraepelin (1848-1915) où il commence à s’intéresser aux arachnides. Il s’installe à Brème en 1910. Il y dirige le musée d’outre-mer (Übersee-Museum) à partir de 1930.
 Il décrit le tiers de tous les opilions connus aujourd’hui, soit 2 260 espèces, ainsi qu’environ 700 taxons d’araignées et de nombreux solifuges.
-Sa collection est conservée au Senckenbergische Naturforschende Gesellschaft, outre ses propres types, on y trouve des spécimens historiques dont ceux de Ludwig Carl Christian Koch (1825-1908), d’Eugène Simon (1848-1924), de Tord Tamerlan Teodor Thorell (1830-1901), de Philipp Bertkau (1849-1895) et de Friedrich Dahl (1856-1929). Cette institution conserve également sa bibliothèque[2].
+Sa collection est conservée au Senckenbergische Naturforschende Gesellschaft, outre ses propres types, on y trouve des spécimens historiques dont ceux de Ludwig Carl Christian Koch (1825-1908), d’Eugène Simon (1848-1924), de Tord Tamerlan Teodor Thorell (1830-1901), de Philipp Bertkau (1849-1895) et de Friedrich Dahl (1856-1929). Cette institution conserve également sa bibliothèque.
 </t>
         </is>
       </c>
